--- a/测试单-电子书_daisy_160928.xlsx
+++ b/测试单-电子书_daisy_160928.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="19200" windowHeight="11550" tabRatio="784"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="19200" windowHeight="11550" tabRatio="784" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试说明" sheetId="17" r:id="rId1"/>
     <sheet name="电子书-Daisy文档" sheetId="11" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'电子书-Daisy文档'!$A$2:$P$50</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="132">
   <si>
     <t>编号</t>
   </si>
@@ -1404,6 +1407,14 @@
   </si>
   <si>
     <t>至编号48。复检9.27之前版本的记录。目前不能测试多级目录的情况。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1600,7 +1611,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -2074,6 +2085,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color theme="3" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.39994506668294322"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2149,7 +2171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2552,9 +2574,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="24">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 10" xfId="22"/>
     <cellStyle name="常规 2 11" xfId="4"/>
@@ -2579,67 +2604,7 @@
     <cellStyle name="常规 3 7" xfId="17"/>
     <cellStyle name="常规 6" xfId="6"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2657,7 +2622,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2943,7 +2908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -3143,13 +3108,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="I38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3157,7 +3123,8 @@
     <col min="1" max="2" width="9" style="26"/>
     <col min="3" max="3" width="15.875" style="26" customWidth="1"/>
     <col min="4" max="4" width="9" style="26"/>
-    <col min="5" max="6" width="14.375" style="26" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="26" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="26" customWidth="1"/>
     <col min="7" max="7" width="77.375" style="27" customWidth="1"/>
     <col min="8" max="8" width="11.25" style="26" customWidth="1"/>
     <col min="9" max="9" width="13.125" style="26" customWidth="1"/>
@@ -3222,7 +3189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="132" customFormat="1" ht="40.5">
+    <row r="3" spans="1:16" s="132" customFormat="1" ht="40.5" hidden="1">
       <c r="A3" s="113">
         <v>1</v>
       </c>
@@ -3258,7 +3225,7 @@
       <c r="O3" s="115"/>
       <c r="P3" s="121"/>
     </row>
-    <row r="4" spans="1:16" s="132" customFormat="1" ht="135">
+    <row r="4" spans="1:16" s="132" customFormat="1" ht="135" hidden="1">
       <c r="A4" s="113">
         <v>2</v>
       </c>
@@ -3296,7 +3263,7 @@
       <c r="O4" s="115"/>
       <c r="P4" s="121"/>
     </row>
-    <row r="5" spans="1:16" s="132" customFormat="1" ht="27">
+    <row r="5" spans="1:16" s="132" customFormat="1" ht="27" hidden="1">
       <c r="A5" s="113">
         <v>3</v>
       </c>
@@ -3332,7 +3299,7 @@
       <c r="O5" s="115"/>
       <c r="P5" s="121"/>
     </row>
-    <row r="6" spans="1:16" s="132" customFormat="1" ht="27">
+    <row r="6" spans="1:16" s="132" customFormat="1" ht="27" hidden="1">
       <c r="A6" s="113">
         <v>4</v>
       </c>
@@ -3400,7 +3367,9 @@
       <c r="M7" s="103"/>
       <c r="N7" s="103"/>
       <c r="O7" s="53"/>
-      <c r="P7" s="13"/>
+      <c r="P7" s="13" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="8" spans="1:16" s="109" customFormat="1" ht="40.5">
       <c r="A8" s="113">
@@ -3434,9 +3403,11 @@
       <c r="M8" s="103"/>
       <c r="N8" s="103"/>
       <c r="O8" s="53"/>
-      <c r="P8" s="13"/>
-    </row>
-    <row r="9" spans="1:16" s="132" customFormat="1" ht="54">
+      <c r="P8" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="132" customFormat="1" ht="54" hidden="1">
       <c r="A9" s="113">
         <v>7</v>
       </c>
@@ -3472,7 +3443,7 @@
       <c r="O9" s="115"/>
       <c r="P9" s="121"/>
     </row>
-    <row r="10" spans="1:16" s="129" customFormat="1" ht="40.5">
+    <row r="10" spans="1:16" s="129" customFormat="1" ht="40.5" hidden="1">
       <c r="A10" s="113">
         <v>8</v>
       </c>
@@ -3508,7 +3479,7 @@
       <c r="O10" s="115"/>
       <c r="P10" s="121"/>
     </row>
-    <row r="11" spans="1:16" s="129" customFormat="1">
+    <row r="11" spans="1:16" s="129" customFormat="1" hidden="1">
       <c r="A11" s="113">
         <v>9</v>
       </c>
@@ -3576,9 +3547,11 @@
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
       <c r="O12" s="53"/>
-      <c r="P12" s="13"/>
-    </row>
-    <row r="13" spans="1:16" s="129" customFormat="1" ht="27">
+      <c r="P12" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="129" customFormat="1" ht="27" hidden="1">
       <c r="A13" s="113">
         <v>11</v>
       </c>
@@ -3644,7 +3617,9 @@
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="53"/>
-      <c r="P14" s="13"/>
+      <c r="P14" s="13" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="15" spans="1:16" customFormat="1" ht="27">
       <c r="A15" s="113">
@@ -3676,7 +3651,9 @@
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="53"/>
-      <c r="P15" s="13"/>
+      <c r="P15" s="13" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="16" spans="1:16" customFormat="1" ht="40.5">
       <c r="A16" s="113">
@@ -3708,7 +3685,9 @@
       <c r="M16" s="58"/>
       <c r="N16" s="24"/>
       <c r="O16" s="59"/>
-      <c r="P16" s="60"/>
+      <c r="P16" s="60" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="17" spans="1:16" customFormat="1" ht="27">
       <c r="A17" s="113">
@@ -3734,6 +3713,9 @@
       </c>
       <c r="H17" s="95"/>
       <c r="I17" s="102"/>
+      <c r="P17" s="134" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="18" spans="1:16" ht="40.5">
       <c r="A18" s="113">
@@ -3765,7 +3747,9 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="28"/>
-      <c r="P18" s="13"/>
+      <c r="P18" s="13" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="19" spans="1:16" ht="40.5">
       <c r="A19" s="113">
@@ -3797,7 +3781,9 @@
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="28"/>
-      <c r="P19" s="13"/>
+      <c r="P19" s="13" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="20" spans="1:16" ht="54">
       <c r="A20" s="113">
@@ -3829,7 +3815,9 @@
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="28"/>
-      <c r="P20" s="13"/>
+      <c r="P20" s="13" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="21" spans="1:16" ht="54">
       <c r="A21" s="113">
@@ -3861,7 +3849,9 @@
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="28"/>
-      <c r="P21" s="13"/>
+      <c r="P21" s="13" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="22" spans="1:16" ht="40.5">
       <c r="A22" s="113">
@@ -3893,7 +3883,9 @@
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="28"/>
-      <c r="P22" s="13"/>
+      <c r="P22" s="13" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="23" spans="1:16" s="50" customFormat="1" ht="54">
       <c r="A23" s="113">
@@ -3925,7 +3917,9 @@
       <c r="M23" s="47"/>
       <c r="N23" s="47"/>
       <c r="O23" s="46"/>
-      <c r="P23" s="49"/>
+      <c r="P23" s="49" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="113">
@@ -3959,7 +3953,9 @@
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
       <c r="O24" s="28"/>
-      <c r="P24" s="13"/>
+      <c r="P24" s="13" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="25" spans="1:16" ht="81">
       <c r="A25" s="113">
@@ -3991,7 +3987,9 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="28"/>
-      <c r="P25" s="13"/>
+      <c r="P25" s="13" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="26" spans="1:16" ht="40.5">
       <c r="A26" s="113">
@@ -4023,7 +4021,9 @@
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
       <c r="O26" s="28"/>
-      <c r="P26" s="13"/>
+      <c r="P26" s="13" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="27" spans="1:16" ht="27">
       <c r="A27" s="113">
@@ -4057,9 +4057,11 @@
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="28"/>
-      <c r="P27" s="13"/>
-    </row>
-    <row r="28" spans="1:16" s="122" customFormat="1" ht="54">
+      <c r="P27" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="122" customFormat="1" ht="54" hidden="1">
       <c r="A28" s="113">
         <v>26</v>
       </c>
@@ -4125,9 +4127,11 @@
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
       <c r="O29" s="28"/>
-      <c r="P29" s="13"/>
-    </row>
-    <row r="30" spans="1:16" s="122" customFormat="1" ht="81">
+      <c r="P29" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="122" customFormat="1" ht="81" hidden="1">
       <c r="A30" s="113">
         <v>28</v>
       </c>
@@ -4165,7 +4169,7 @@
       <c r="O30" s="115"/>
       <c r="P30" s="121"/>
     </row>
-    <row r="31" spans="1:16" s="122" customFormat="1" ht="81">
+    <row r="31" spans="1:16" s="122" customFormat="1" ht="81" hidden="1">
       <c r="A31" s="113">
         <v>29</v>
       </c>
@@ -4233,7 +4237,9 @@
       <c r="M32" s="47"/>
       <c r="N32" s="47"/>
       <c r="O32" s="46"/>
-      <c r="P32" s="49"/>
+      <c r="P32" s="49" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="33" spans="1:16" s="50" customFormat="1" ht="81">
       <c r="A33" s="113">
@@ -4265,7 +4271,9 @@
       <c r="M33" s="47"/>
       <c r="N33" s="47"/>
       <c r="O33" s="46"/>
-      <c r="P33" s="49"/>
+      <c r="P33" s="49" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="34" spans="1:16" s="50" customFormat="1" ht="81">
       <c r="A34" s="113">
@@ -4297,7 +4305,9 @@
       <c r="M34" s="47"/>
       <c r="N34" s="47"/>
       <c r="O34" s="46"/>
-      <c r="P34" s="49"/>
+      <c r="P34" s="49" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="35" spans="1:16" s="50" customFormat="1" ht="54">
       <c r="A35" s="113">
@@ -4329,7 +4339,9 @@
       <c r="M35" s="47"/>
       <c r="N35" s="47"/>
       <c r="O35" s="46"/>
-      <c r="P35" s="49"/>
+      <c r="P35" s="49" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="36" spans="1:16" s="50" customFormat="1" ht="94.5">
       <c r="A36" s="113">
@@ -4361,7 +4373,9 @@
       <c r="M36" s="47"/>
       <c r="N36" s="47"/>
       <c r="O36" s="46"/>
-      <c r="P36" s="49"/>
+      <c r="P36" s="49" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="37" spans="1:16" s="50" customFormat="1" ht="81">
       <c r="A37" s="113">
@@ -4393,7 +4407,9 @@
       <c r="M37" s="47"/>
       <c r="N37" s="47"/>
       <c r="O37" s="46"/>
-      <c r="P37" s="49"/>
+      <c r="P37" s="49" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="38" spans="1:16" s="107" customFormat="1" ht="67.5">
       <c r="A38" s="113">
@@ -4427,7 +4443,9 @@
       <c r="M38" s="47"/>
       <c r="N38" s="47"/>
       <c r="O38" s="104"/>
-      <c r="P38" s="49"/>
+      <c r="P38" s="49" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="39" spans="1:16" s="50" customFormat="1">
       <c r="A39" s="113">
@@ -4461,7 +4479,9 @@
       <c r="M39" s="47"/>
       <c r="N39" s="47"/>
       <c r="O39" s="46"/>
-      <c r="P39" s="49"/>
+      <c r="P39" s="49" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="40" spans="1:16" s="50" customFormat="1">
       <c r="A40" s="113">
@@ -4495,7 +4515,9 @@
       <c r="M40" s="47"/>
       <c r="N40" s="47"/>
       <c r="O40" s="46"/>
-      <c r="P40" s="49"/>
+      <c r="P40" s="49" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="41" spans="1:16" s="50" customFormat="1">
       <c r="A41" s="113">
@@ -4529,7 +4551,9 @@
       <c r="M41" s="47"/>
       <c r="N41" s="47"/>
       <c r="O41" s="46"/>
-      <c r="P41" s="49"/>
+      <c r="P41" s="49" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="42" spans="1:16" s="50" customFormat="1" ht="27">
       <c r="A42" s="113">
@@ -4563,7 +4587,9 @@
       <c r="M42" s="47"/>
       <c r="N42" s="47"/>
       <c r="O42" s="46"/>
-      <c r="P42" s="49"/>
+      <c r="P42" s="49" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="43" spans="1:16" s="107" customFormat="1" ht="27">
       <c r="A43" s="113">
@@ -4597,7 +4623,9 @@
       <c r="M43" s="47"/>
       <c r="N43" s="47"/>
       <c r="O43" s="104"/>
-      <c r="P43" s="49"/>
+      <c r="P43" s="49" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="44" spans="1:16" s="107" customFormat="1" ht="40.5">
       <c r="A44" s="113">
@@ -4631,7 +4659,9 @@
       <c r="M44" s="47"/>
       <c r="N44" s="47"/>
       <c r="O44" s="104"/>
-      <c r="P44" s="49"/>
+      <c r="P44" s="49" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="45" spans="1:16" s="107" customFormat="1" ht="40.5">
       <c r="A45" s="113">
@@ -4665,7 +4695,9 @@
       <c r="M45" s="47"/>
       <c r="N45" s="47"/>
       <c r="O45" s="104"/>
-      <c r="P45" s="49"/>
+      <c r="P45" s="49" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="46" spans="1:16" s="50" customFormat="1" ht="40.5">
       <c r="A46" s="113">
@@ -4697,7 +4729,9 @@
       <c r="M46" s="47"/>
       <c r="N46" s="47"/>
       <c r="O46" s="46"/>
-      <c r="P46" s="49"/>
+      <c r="P46" s="49" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="47" spans="1:16" s="107" customFormat="1" ht="27">
       <c r="A47" s="113">
@@ -4729,7 +4763,9 @@
       <c r="M47" s="47"/>
       <c r="N47" s="47"/>
       <c r="O47" s="104"/>
-      <c r="P47" s="49"/>
+      <c r="P47" s="49" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="48" spans="1:16" s="107" customFormat="1" ht="40.5">
       <c r="A48" s="113">
@@ -4763,7 +4799,9 @@
       <c r="M48" s="47"/>
       <c r="N48" s="47"/>
       <c r="O48" s="104"/>
-      <c r="P48" s="49"/>
+      <c r="P48" s="49" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="49" spans="1:16" s="50" customFormat="1">
       <c r="A49" s="113">
@@ -4795,7 +4833,9 @@
       <c r="M49" s="47"/>
       <c r="N49" s="47"/>
       <c r="O49" s="46"/>
-      <c r="P49" s="49"/>
+      <c r="P49" s="49" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="50" spans="1:16" s="107" customFormat="1" ht="27">
       <c r="A50" s="113">
@@ -4829,7 +4869,9 @@
       <c r="M50" s="47"/>
       <c r="N50" s="47"/>
       <c r="O50" s="104"/>
-      <c r="P50" s="49"/>
+      <c r="P50" s="49" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="44"/>
@@ -4994,6 +5036,11 @@
       <c r="P59" s="42"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:P50">
+    <filterColumn colId="8">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="返回">

--- a/测试单-电子书_daisy_160928.xlsx
+++ b/测试单-电子书_daisy_160928.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="133">
   <si>
     <t>编号</t>
   </si>
@@ -1415,6 +1415,10 @@
   </si>
   <si>
     <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2171,7 +2175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2576,6 +2580,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -3109,13 +3119,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="I38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="P53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S19" sqref="S19"/>
+      <selection pane="bottomRight" activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3131,15 +3141,17 @@
     <col min="10" max="10" width="11.25" style="26" customWidth="1"/>
     <col min="11" max="13" width="9" style="26"/>
     <col min="14" max="14" width="23.75" style="26" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="26"/>
+    <col min="15" max="18" width="9" style="26"/>
+    <col min="19" max="19" width="9.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="A1" s="88" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1">
+    <row r="2" spans="1:19" s="1" customFormat="1">
       <c r="A2" s="73" t="s">
         <v>0</v>
       </c>
@@ -3189,7 +3201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="132" customFormat="1" ht="40.5" hidden="1">
+    <row r="3" spans="1:19" s="132" customFormat="1" ht="40.5" hidden="1">
       <c r="A3" s="113">
         <v>1</v>
       </c>
@@ -3225,7 +3237,7 @@
       <c r="O3" s="115"/>
       <c r="P3" s="121"/>
     </row>
-    <row r="4" spans="1:16" s="132" customFormat="1" ht="135" hidden="1">
+    <row r="4" spans="1:19" s="132" customFormat="1" ht="135" hidden="1">
       <c r="A4" s="113">
         <v>2</v>
       </c>
@@ -3263,7 +3275,7 @@
       <c r="O4" s="115"/>
       <c r="P4" s="121"/>
     </row>
-    <row r="5" spans="1:16" s="132" customFormat="1" ht="27" hidden="1">
+    <row r="5" spans="1:19" s="132" customFormat="1" ht="27" hidden="1">
       <c r="A5" s="113">
         <v>3</v>
       </c>
@@ -3299,7 +3311,7 @@
       <c r="O5" s="115"/>
       <c r="P5" s="121"/>
     </row>
-    <row r="6" spans="1:16" s="132" customFormat="1" ht="27" hidden="1">
+    <row r="6" spans="1:19" s="132" customFormat="1" ht="27" hidden="1">
       <c r="A6" s="113">
         <v>4</v>
       </c>
@@ -3335,7 +3347,7 @@
       <c r="O6" s="115"/>
       <c r="P6" s="121"/>
     </row>
-    <row r="7" spans="1:16" s="109" customFormat="1" ht="27">
+    <row r="7" spans="1:19" s="109" customFormat="1" ht="27" hidden="1">
       <c r="A7" s="113">
         <v>5</v>
       </c>
@@ -3371,7 +3383,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="109" customFormat="1" ht="40.5">
+    <row r="8" spans="1:19" s="109" customFormat="1" ht="40.5" hidden="1">
       <c r="A8" s="113">
         <v>6</v>
       </c>
@@ -3407,7 +3419,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="132" customFormat="1" ht="54" hidden="1">
+    <row r="9" spans="1:19" s="132" customFormat="1" ht="54" hidden="1">
       <c r="A9" s="113">
         <v>7</v>
       </c>
@@ -3443,7 +3455,7 @@
       <c r="O9" s="115"/>
       <c r="P9" s="121"/>
     </row>
-    <row r="10" spans="1:16" s="129" customFormat="1" ht="40.5" hidden="1">
+    <row r="10" spans="1:19" s="129" customFormat="1" ht="40.5" hidden="1">
       <c r="A10" s="113">
         <v>8</v>
       </c>
@@ -3479,7 +3491,7 @@
       <c r="O10" s="115"/>
       <c r="P10" s="121"/>
     </row>
-    <row r="11" spans="1:16" s="129" customFormat="1" hidden="1">
+    <row r="11" spans="1:19" s="129" customFormat="1" hidden="1">
       <c r="A11" s="113">
         <v>9</v>
       </c>
@@ -3515,7 +3527,7 @@
       <c r="O11" s="115"/>
       <c r="P11" s="121"/>
     </row>
-    <row r="12" spans="1:16" customFormat="1" ht="40.5">
+    <row r="12" spans="1:19" customFormat="1" ht="40.5">
       <c r="A12" s="113">
         <v>10</v>
       </c>
@@ -3550,8 +3562,14 @@
       <c r="P12" s="13" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" s="129" customFormat="1" ht="27" hidden="1">
+      <c r="R12" t="s">
+        <v>132</v>
+      </c>
+      <c r="S12" s="136">
+        <v>42664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="129" customFormat="1" ht="27" hidden="1">
       <c r="A13" s="113">
         <v>11</v>
       </c>
@@ -3587,7 +3605,7 @@
       <c r="O13" s="115"/>
       <c r="P13" s="121"/>
     </row>
-    <row r="14" spans="1:16" customFormat="1" ht="40.5">
+    <row r="14" spans="1:19" customFormat="1" ht="40.5">
       <c r="A14" s="113">
         <v>12</v>
       </c>
@@ -3620,8 +3638,14 @@
       <c r="P14" s="13" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" customFormat="1" ht="27">
+      <c r="R14" t="s">
+        <v>132</v>
+      </c>
+      <c r="S14" s="136">
+        <v>42664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" customFormat="1" ht="27" hidden="1">
       <c r="A15" s="113">
         <v>13</v>
       </c>
@@ -3655,7 +3679,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:16" customFormat="1" ht="40.5">
+    <row r="16" spans="1:19" customFormat="1" ht="40.5" hidden="1">
       <c r="A16" s="113">
         <v>14</v>
       </c>
@@ -3689,7 +3713,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:16" customFormat="1" ht="27">
+    <row r="17" spans="1:16" customFormat="1" ht="27" hidden="1">
       <c r="A17" s="113">
         <v>15</v>
       </c>
@@ -3717,7 +3741,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="40.5">
+    <row r="18" spans="1:16" ht="40.5" hidden="1">
       <c r="A18" s="113">
         <v>16</v>
       </c>
@@ -3751,7 +3775,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="40.5">
+    <row r="19" spans="1:16" ht="40.5" hidden="1">
       <c r="A19" s="113">
         <v>17</v>
       </c>
@@ -3785,7 +3809,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="54">
+    <row r="20" spans="1:16" ht="54" hidden="1">
       <c r="A20" s="113">
         <v>18</v>
       </c>
@@ -3819,7 +3843,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="54">
+    <row r="21" spans="1:16" ht="54" hidden="1">
       <c r="A21" s="113">
         <v>19</v>
       </c>
@@ -3853,7 +3877,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="40.5">
+    <row r="22" spans="1:16" ht="40.5" hidden="1">
       <c r="A22" s="113">
         <v>20</v>
       </c>
@@ -3887,7 +3911,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="50" customFormat="1" ht="54">
+    <row r="23" spans="1:16" s="50" customFormat="1" ht="54" hidden="1">
       <c r="A23" s="113">
         <v>21</v>
       </c>
@@ -3921,7 +3945,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" hidden="1">
       <c r="A24" s="113">
         <v>22</v>
       </c>
@@ -3957,7 +3981,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="81">
+    <row r="25" spans="1:16" ht="81" hidden="1">
       <c r="A25" s="113">
         <v>23</v>
       </c>
@@ -3991,7 +4015,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="40.5">
+    <row r="26" spans="1:16" ht="40.5" hidden="1">
       <c r="A26" s="113">
         <v>24</v>
       </c>
@@ -4025,7 +4049,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="27">
+    <row r="27" spans="1:16" ht="27" hidden="1">
       <c r="A27" s="113">
         <v>25</v>
       </c>
@@ -4205,7 +4229,7 @@
       <c r="O31" s="115"/>
       <c r="P31" s="121"/>
     </row>
-    <row r="32" spans="1:16" s="50" customFormat="1" ht="94.5">
+    <row r="32" spans="1:16" s="50" customFormat="1" ht="94.5" hidden="1">
       <c r="A32" s="113">
         <v>30</v>
       </c>
@@ -4241,7 +4265,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="50" customFormat="1" ht="81">
+    <row r="33" spans="1:19" s="50" customFormat="1" ht="81">
       <c r="A33" s="113">
         <v>31</v>
       </c>
@@ -4275,7 +4299,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="50" customFormat="1" ht="81">
+    <row r="34" spans="1:19" s="50" customFormat="1" ht="81">
       <c r="A34" s="113">
         <v>32</v>
       </c>
@@ -4308,8 +4332,14 @@
       <c r="P34" s="49" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" s="50" customFormat="1" ht="54">
+      <c r="R34" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="S34" s="135">
+        <v>42664</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="50" customFormat="1" ht="54">
       <c r="A35" s="113">
         <v>33</v>
       </c>
@@ -4342,8 +4372,14 @@
       <c r="P35" s="49" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" s="50" customFormat="1" ht="94.5">
+      <c r="R35" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="S35" s="135">
+        <v>42664</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="50" customFormat="1" ht="94.5">
       <c r="A36" s="113">
         <v>34</v>
       </c>
@@ -4376,8 +4412,14 @@
       <c r="P36" s="49" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" s="50" customFormat="1" ht="81">
+      <c r="R36" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="S36" s="135">
+        <v>42664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" s="50" customFormat="1" ht="81">
       <c r="A37" s="113">
         <v>35</v>
       </c>
@@ -4411,7 +4453,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="107" customFormat="1" ht="67.5">
+    <row r="38" spans="1:19" s="107" customFormat="1" ht="67.5">
       <c r="A38" s="113">
         <v>36</v>
       </c>
@@ -4447,7 +4489,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="50" customFormat="1">
+    <row r="39" spans="1:19" s="50" customFormat="1" hidden="1">
       <c r="A39" s="113">
         <v>37</v>
       </c>
@@ -4483,7 +4525,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="50" customFormat="1">
+    <row r="40" spans="1:19" s="50" customFormat="1" hidden="1">
       <c r="A40" s="113">
         <v>38</v>
       </c>
@@ -4519,7 +4561,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="50" customFormat="1">
+    <row r="41" spans="1:19" s="50" customFormat="1">
       <c r="A41" s="113">
         <v>39</v>
       </c>
@@ -4555,7 +4597,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="50" customFormat="1" ht="27">
+    <row r="42" spans="1:19" s="50" customFormat="1" ht="27" hidden="1">
       <c r="A42" s="113">
         <v>40</v>
       </c>
@@ -4591,7 +4633,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="107" customFormat="1" ht="27">
+    <row r="43" spans="1:19" s="107" customFormat="1" ht="27" hidden="1">
       <c r="A43" s="113">
         <v>41</v>
       </c>
@@ -4627,7 +4669,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="107" customFormat="1" ht="40.5">
+    <row r="44" spans="1:19" s="107" customFormat="1" ht="40.5" hidden="1">
       <c r="A44" s="113">
         <v>42</v>
       </c>
@@ -4663,7 +4705,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="107" customFormat="1" ht="40.5">
+    <row r="45" spans="1:19" s="107" customFormat="1" ht="40.5" hidden="1">
       <c r="A45" s="113">
         <v>43</v>
       </c>
@@ -4699,7 +4741,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="50" customFormat="1" ht="40.5">
+    <row r="46" spans="1:19" s="50" customFormat="1" ht="40.5" hidden="1">
       <c r="A46" s="113">
         <v>44</v>
       </c>
@@ -4733,7 +4775,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="107" customFormat="1" ht="27">
+    <row r="47" spans="1:19" s="107" customFormat="1" ht="27" hidden="1">
       <c r="A47" s="113">
         <v>45</v>
       </c>
@@ -4767,7 +4809,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="107" customFormat="1" ht="40.5">
+    <row r="48" spans="1:19" s="107" customFormat="1" ht="40.5" hidden="1">
       <c r="A48" s="113">
         <v>46</v>
       </c>
@@ -4803,7 +4845,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="50" customFormat="1">
+    <row r="49" spans="1:19" s="50" customFormat="1" hidden="1">
       <c r="A49" s="113">
         <v>47</v>
       </c>
@@ -4837,7 +4879,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="107" customFormat="1" ht="27">
+    <row r="50" spans="1:19" s="107" customFormat="1" ht="27">
       <c r="A50" s="113">
         <v>48</v>
       </c>
@@ -4872,8 +4914,14 @@
       <c r="P50" s="49" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="R50" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="S50" s="135">
+        <v>42664</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="44"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -4891,7 +4939,7 @@
       <c r="O51" s="28"/>
       <c r="P51" s="13"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:19">
       <c r="A52" s="44"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -4909,7 +4957,7 @@
       <c r="O52" s="28"/>
       <c r="P52" s="13"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:19">
       <c r="A53" s="44"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -4927,7 +4975,7 @@
       <c r="O53" s="28"/>
       <c r="P53" s="13"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:19">
       <c r="A54" s="44"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -4945,7 +4993,7 @@
       <c r="O54" s="28"/>
       <c r="P54" s="13"/>
     </row>
-    <row r="55" spans="1:16" s="38" customFormat="1">
+    <row r="55" spans="1:19" s="38" customFormat="1">
       <c r="A55" s="31"/>
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
@@ -4963,7 +5011,7 @@
       <c r="O55" s="36"/>
       <c r="P55" s="37"/>
     </row>
-    <row r="56" spans="1:16" s="38" customFormat="1">
+    <row r="56" spans="1:19" s="38" customFormat="1">
       <c r="A56" s="17"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -4981,7 +5029,7 @@
       <c r="O56" s="36"/>
       <c r="P56" s="37"/>
     </row>
-    <row r="57" spans="1:16" s="38" customFormat="1">
+    <row r="57" spans="1:19" s="38" customFormat="1">
       <c r="A57" s="17"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -4999,7 +5047,7 @@
       <c r="O57" s="36"/>
       <c r="P57" s="37"/>
     </row>
-    <row r="58" spans="1:16" s="38" customFormat="1">
+    <row r="58" spans="1:19" s="38" customFormat="1">
       <c r="A58" s="17"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -5017,7 +5065,7 @@
       <c r="O58" s="36"/>
       <c r="P58" s="37"/>
     </row>
-    <row r="59" spans="1:16" s="38" customFormat="1">
+    <row r="59" spans="1:19" s="38" customFormat="1">
       <c r="A59" s="19"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -5039,6 +5087,11 @@
   <autoFilter ref="A2:P50">
     <filterColumn colId="8">
       <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="15">
+      <filters>
+        <filter val="j"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/测试单-电子书_daisy_160928.xlsx
+++ b/测试单-电子书_daisy_160928.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="135">
   <si>
     <t>编号</t>
   </si>
@@ -1418,7 +1418,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已修改</t>
+    <t>是</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3121,27 +3128,28 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="P53" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U38" sqref="U38"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="26"/>
-    <col min="3" max="3" width="15.875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="9" style="26"/>
-    <col min="5" max="5" width="14.375" style="26" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="26" customWidth="1"/>
+    <col min="1" max="2" width="0" style="26" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="26" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="0" style="26" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="26" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="26" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="77.375" style="27" customWidth="1"/>
     <col min="8" max="8" width="11.25" style="26" customWidth="1"/>
     <col min="9" max="9" width="13.125" style="26" customWidth="1"/>
     <col min="10" max="10" width="11.25" style="26" customWidth="1"/>
     <col min="11" max="13" width="9" style="26"/>
     <col min="14" max="14" width="23.75" style="26" customWidth="1"/>
-    <col min="15" max="18" width="9" style="26"/>
+    <col min="15" max="15" width="9.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9" style="26"/>
     <col min="19" max="19" width="9.25" style="26" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="26"/>
   </cols>
@@ -3347,7 +3355,7 @@
       <c r="O6" s="115"/>
       <c r="P6" s="121"/>
     </row>
-    <row r="7" spans="1:19" s="109" customFormat="1" ht="27" hidden="1">
+    <row r="7" spans="1:19" s="109" customFormat="1" ht="27">
       <c r="A7" s="113">
         <v>5</v>
       </c>
@@ -3375,15 +3383,19 @@
       <c r="I7" s="110"/>
       <c r="J7" s="55"/>
       <c r="K7" s="55"/>
-      <c r="L7" s="102"/>
+      <c r="L7" s="102" t="s">
+        <v>134</v>
+      </c>
       <c r="M7" s="103"/>
       <c r="N7" s="103"/>
-      <c r="O7" s="53"/>
+      <c r="O7" s="53">
+        <v>42666</v>
+      </c>
       <c r="P7" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="109" customFormat="1" ht="40.5" hidden="1">
+    <row r="8" spans="1:19" s="109" customFormat="1" ht="40.5">
       <c r="A8" s="113">
         <v>6</v>
       </c>
@@ -3411,10 +3423,14 @@
       <c r="I8" s="110"/>
       <c r="J8" s="55"/>
       <c r="K8" s="55"/>
-      <c r="L8" s="102"/>
+      <c r="L8" s="102" t="s">
+        <v>134</v>
+      </c>
       <c r="M8" s="103"/>
       <c r="N8" s="103"/>
-      <c r="O8" s="53"/>
+      <c r="O8" s="53">
+        <v>42666</v>
+      </c>
       <c r="P8" s="13" t="s">
         <v>130</v>
       </c>
@@ -3527,7 +3543,7 @@
       <c r="O11" s="115"/>
       <c r="P11" s="121"/>
     </row>
-    <row r="12" spans="1:19" customFormat="1" ht="40.5">
+    <row r="12" spans="1:19" customFormat="1" ht="40.5" hidden="1">
       <c r="A12" s="113">
         <v>10</v>
       </c>
@@ -3555,19 +3571,18 @@
       <c r="I12" s="110"/>
       <c r="J12" s="55"/>
       <c r="K12" s="55"/>
-      <c r="L12" s="11"/>
+      <c r="L12" s="102" t="s">
+        <v>133</v>
+      </c>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
-      <c r="O12" s="53"/>
+      <c r="O12" s="136">
+        <v>42664</v>
+      </c>
       <c r="P12" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="R12" t="s">
-        <v>132</v>
-      </c>
-      <c r="S12" s="136">
-        <v>42664</v>
-      </c>
+      <c r="S12" s="136"/>
     </row>
     <row r="13" spans="1:19" s="129" customFormat="1" ht="27" hidden="1">
       <c r="A13" s="113">
@@ -3605,7 +3620,7 @@
       <c r="O13" s="115"/>
       <c r="P13" s="121"/>
     </row>
-    <row r="14" spans="1:19" customFormat="1" ht="40.5">
+    <row r="14" spans="1:19" customFormat="1" ht="40.5" hidden="1">
       <c r="A14" s="113">
         <v>12</v>
       </c>
@@ -3631,21 +3646,20 @@
       <c r="I14" s="110"/>
       <c r="J14" s="55"/>
       <c r="K14" s="55"/>
-      <c r="L14" s="11"/>
+      <c r="L14" s="102" t="s">
+        <v>133</v>
+      </c>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
-      <c r="O14" s="53"/>
+      <c r="O14" s="136">
+        <v>42664</v>
+      </c>
       <c r="P14" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="R14" t="s">
-        <v>132</v>
-      </c>
-      <c r="S14" s="136">
-        <v>42664</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" customFormat="1" ht="27" hidden="1">
+      <c r="S14" s="136"/>
+    </row>
+    <row r="15" spans="1:19" customFormat="1" ht="27">
       <c r="A15" s="113">
         <v>13</v>
       </c>
@@ -3671,15 +3685,19 @@
       <c r="I15" s="102"/>
       <c r="J15" s="55"/>
       <c r="K15" s="55"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="53"/>
+      <c r="L15" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="53">
+        <v>42666</v>
+      </c>
       <c r="P15" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:19" customFormat="1" ht="40.5" hidden="1">
+    <row r="16" spans="1:19" customFormat="1" ht="40.5">
       <c r="A16" s="113">
         <v>14</v>
       </c>
@@ -3713,7 +3731,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:16" customFormat="1" ht="27" hidden="1">
+    <row r="17" spans="1:16" customFormat="1" ht="27">
       <c r="A17" s="113">
         <v>15</v>
       </c>
@@ -3741,7 +3759,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="40.5" hidden="1">
+    <row r="18" spans="1:16" ht="40.5">
       <c r="A18" s="113">
         <v>16</v>
       </c>
@@ -3775,7 +3793,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="40.5" hidden="1">
+    <row r="19" spans="1:16" ht="40.5">
       <c r="A19" s="113">
         <v>17</v>
       </c>
@@ -3809,7 +3827,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="54" hidden="1">
+    <row r="20" spans="1:16" ht="54">
       <c r="A20" s="113">
         <v>18</v>
       </c>
@@ -3843,7 +3861,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="54" hidden="1">
+    <row r="21" spans="1:16" ht="54">
       <c r="A21" s="113">
         <v>19</v>
       </c>
@@ -3877,7 +3895,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="40.5" hidden="1">
+    <row r="22" spans="1:16" ht="40.5">
       <c r="A22" s="113">
         <v>20</v>
       </c>
@@ -3911,7 +3929,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="50" customFormat="1" ht="54" hidden="1">
+    <row r="23" spans="1:16" s="50" customFormat="1" ht="54">
       <c r="A23" s="113">
         <v>21</v>
       </c>
@@ -3945,7 +3963,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1">
+    <row r="24" spans="1:16">
       <c r="A24" s="113">
         <v>22</v>
       </c>
@@ -3981,7 +3999,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="81" hidden="1">
+    <row r="25" spans="1:16" ht="81">
       <c r="A25" s="113">
         <v>23</v>
       </c>
@@ -4015,7 +4033,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="40.5" hidden="1">
+    <row r="26" spans="1:16" ht="40.5">
       <c r="A26" s="113">
         <v>24</v>
       </c>
@@ -4049,7 +4067,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="27" hidden="1">
+    <row r="27" spans="1:16" ht="27">
       <c r="A27" s="113">
         <v>25</v>
       </c>
@@ -4121,7 +4139,7 @@
       <c r="O28" s="115"/>
       <c r="P28" s="121"/>
     </row>
-    <row r="29" spans="1:16" ht="67.5">
+    <row r="29" spans="1:16" ht="67.5" hidden="1">
       <c r="A29" s="113">
         <v>27</v>
       </c>
@@ -4229,7 +4247,7 @@
       <c r="O31" s="115"/>
       <c r="P31" s="121"/>
     </row>
-    <row r="32" spans="1:16" s="50" customFormat="1" ht="94.5" hidden="1">
+    <row r="32" spans="1:16" s="50" customFormat="1" ht="94.5">
       <c r="A32" s="113">
         <v>30</v>
       </c>
@@ -4265,7 +4283,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="50" customFormat="1" ht="81">
+    <row r="33" spans="1:19" s="50" customFormat="1" ht="81" hidden="1">
       <c r="A33" s="113">
         <v>31</v>
       </c>
@@ -4299,7 +4317,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="50" customFormat="1" ht="81">
+    <row r="34" spans="1:19" s="50" customFormat="1" ht="81" hidden="1">
       <c r="A34" s="113">
         <v>32</v>
       </c>
@@ -4325,21 +4343,21 @@
       <c r="I34" s="45"/>
       <c r="J34" s="48"/>
       <c r="K34" s="48"/>
-      <c r="L34" s="45"/>
+      <c r="L34" s="45" t="s">
+        <v>132</v>
+      </c>
       <c r="M34" s="47"/>
       <c r="N34" s="47"/>
-      <c r="O34" s="46"/>
+      <c r="O34" s="135">
+        <v>42664</v>
+      </c>
       <c r="P34" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="R34" s="107" t="s">
-        <v>132</v>
-      </c>
-      <c r="S34" s="135">
-        <v>42664</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" s="50" customFormat="1" ht="54">
+      <c r="R34" s="107"/>
+      <c r="S34" s="135"/>
+    </row>
+    <row r="35" spans="1:19" s="50" customFormat="1" ht="54" hidden="1">
       <c r="A35" s="113">
         <v>33</v>
       </c>
@@ -4365,21 +4383,21 @@
       <c r="I35" s="45"/>
       <c r="J35" s="48"/>
       <c r="K35" s="48"/>
-      <c r="L35" s="45"/>
+      <c r="L35" s="45" t="s">
+        <v>132</v>
+      </c>
       <c r="M35" s="47"/>
       <c r="N35" s="47"/>
-      <c r="O35" s="46"/>
+      <c r="O35" s="135">
+        <v>42664</v>
+      </c>
       <c r="P35" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="R35" s="107" t="s">
-        <v>132</v>
-      </c>
-      <c r="S35" s="135">
-        <v>42664</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" s="50" customFormat="1" ht="94.5">
+      <c r="R35" s="107"/>
+      <c r="S35" s="135"/>
+    </row>
+    <row r="36" spans="1:19" s="50" customFormat="1" ht="94.5" hidden="1">
       <c r="A36" s="113">
         <v>34</v>
       </c>
@@ -4405,21 +4423,21 @@
       <c r="I36" s="45"/>
       <c r="J36" s="48"/>
       <c r="K36" s="48"/>
-      <c r="L36" s="45"/>
+      <c r="L36" s="45" t="s">
+        <v>132</v>
+      </c>
       <c r="M36" s="47"/>
       <c r="N36" s="47"/>
-      <c r="O36" s="46"/>
+      <c r="O36" s="135">
+        <v>42664</v>
+      </c>
       <c r="P36" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="R36" s="107" t="s">
-        <v>132</v>
-      </c>
-      <c r="S36" s="135">
-        <v>42664</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" s="50" customFormat="1" ht="81">
+      <c r="R36" s="107"/>
+      <c r="S36" s="135"/>
+    </row>
+    <row r="37" spans="1:19" s="50" customFormat="1" ht="81" hidden="1">
       <c r="A37" s="113">
         <v>35</v>
       </c>
@@ -4453,7 +4471,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="107" customFormat="1" ht="67.5">
+    <row r="38" spans="1:19" s="107" customFormat="1" ht="67.5" hidden="1">
       <c r="A38" s="113">
         <v>36</v>
       </c>
@@ -4489,7 +4507,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="50" customFormat="1" hidden="1">
+    <row r="39" spans="1:19" s="50" customFormat="1">
       <c r="A39" s="113">
         <v>37</v>
       </c>
@@ -4525,7 +4543,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="50" customFormat="1" hidden="1">
+    <row r="40" spans="1:19" s="50" customFormat="1">
       <c r="A40" s="113">
         <v>38</v>
       </c>
@@ -4561,7 +4579,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="50" customFormat="1">
+    <row r="41" spans="1:19" s="50" customFormat="1" hidden="1">
       <c r="A41" s="113">
         <v>39</v>
       </c>
@@ -4597,7 +4615,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="50" customFormat="1" ht="27" hidden="1">
+    <row r="42" spans="1:19" s="50" customFormat="1" ht="27">
       <c r="A42" s="113">
         <v>40</v>
       </c>
@@ -4633,7 +4651,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="107" customFormat="1" ht="27" hidden="1">
+    <row r="43" spans="1:19" s="107" customFormat="1" ht="27">
       <c r="A43" s="113">
         <v>41</v>
       </c>
@@ -4669,7 +4687,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="107" customFormat="1" ht="40.5" hidden="1">
+    <row r="44" spans="1:19" s="107" customFormat="1" ht="40.5">
       <c r="A44" s="113">
         <v>42</v>
       </c>
@@ -4705,7 +4723,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="107" customFormat="1" ht="40.5" hidden="1">
+    <row r="45" spans="1:19" s="107" customFormat="1" ht="40.5">
       <c r="A45" s="113">
         <v>43</v>
       </c>
@@ -4741,7 +4759,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="50" customFormat="1" ht="40.5" hidden="1">
+    <row r="46" spans="1:19" s="50" customFormat="1" ht="40.5">
       <c r="A46" s="113">
         <v>44</v>
       </c>
@@ -4775,7 +4793,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="107" customFormat="1" ht="27" hidden="1">
+    <row r="47" spans="1:19" s="107" customFormat="1" ht="27">
       <c r="A47" s="113">
         <v>45</v>
       </c>
@@ -4809,7 +4827,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="107" customFormat="1" ht="40.5" hidden="1">
+    <row r="48" spans="1:19" s="107" customFormat="1" ht="40.5">
       <c r="A48" s="113">
         <v>46</v>
       </c>
@@ -4845,7 +4863,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="50" customFormat="1" hidden="1">
+    <row r="49" spans="1:16" s="50" customFormat="1">
       <c r="A49" s="113">
         <v>47</v>
       </c>
@@ -4879,7 +4897,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:19" s="107" customFormat="1" ht="27">
+    <row r="50" spans="1:16" s="107" customFormat="1" ht="27" hidden="1">
       <c r="A50" s="113">
         <v>48</v>
       </c>
@@ -4908,20 +4926,18 @@
       <c r="J50" s="48"/>
       <c r="K50" s="48"/>
       <c r="L50" s="45"/>
-      <c r="M50" s="47"/>
+      <c r="M50" s="47" t="s">
+        <v>133</v>
+      </c>
       <c r="N50" s="47"/>
-      <c r="O50" s="104"/>
+      <c r="O50" s="135">
+        <v>42664</v>
+      </c>
       <c r="P50" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="R50" s="107" t="s">
-        <v>132</v>
-      </c>
-      <c r="S50" s="135">
-        <v>42664</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="44"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -4939,7 +4955,7 @@
       <c r="O51" s="28"/>
       <c r="P51" s="13"/>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:16">
       <c r="A52" s="44"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -4957,7 +4973,7 @@
       <c r="O52" s="28"/>
       <c r="P52" s="13"/>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:16">
       <c r="A53" s="44"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -4975,7 +4991,7 @@
       <c r="O53" s="28"/>
       <c r="P53" s="13"/>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:16">
       <c r="A54" s="44"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -4993,7 +5009,7 @@
       <c r="O54" s="28"/>
       <c r="P54" s="13"/>
     </row>
-    <row r="55" spans="1:19" s="38" customFormat="1">
+    <row r="55" spans="1:16" s="38" customFormat="1">
       <c r="A55" s="31"/>
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
@@ -5011,7 +5027,7 @@
       <c r="O55" s="36"/>
       <c r="P55" s="37"/>
     </row>
-    <row r="56" spans="1:19" s="38" customFormat="1">
+    <row r="56" spans="1:16" s="38" customFormat="1">
       <c r="A56" s="17"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -5029,7 +5045,7 @@
       <c r="O56" s="36"/>
       <c r="P56" s="37"/>
     </row>
-    <row r="57" spans="1:19" s="38" customFormat="1">
+    <row r="57" spans="1:16" s="38" customFormat="1">
       <c r="A57" s="17"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -5047,7 +5063,7 @@
       <c r="O57" s="36"/>
       <c r="P57" s="37"/>
     </row>
-    <row r="58" spans="1:19" s="38" customFormat="1">
+    <row r="58" spans="1:16" s="38" customFormat="1">
       <c r="A58" s="17"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -5065,7 +5081,7 @@
       <c r="O58" s="36"/>
       <c r="P58" s="37"/>
     </row>
-    <row r="59" spans="1:19" s="38" customFormat="1">
+    <row r="59" spans="1:16" s="38" customFormat="1">
       <c r="A59" s="19"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -5090,7 +5106,7 @@
     </filterColumn>
     <filterColumn colId="15">
       <filters>
-        <filter val="j"/>
+        <filter val="z"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/测试单-电子书_daisy_160928.xlsx
+++ b/测试单-电子书_daisy_160928.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="141">
   <si>
     <t>编号</t>
   </si>
@@ -1427,6 +1427,28 @@
   <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>文档本身这句就带这么多空格。Daisy是按解析出来的句子内容反显得。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据本身这句的tag时间就是4秒多。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统和正文发音人不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统共性问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此文件无任何音频文件。现在修改为如果当前句没有音频，则不继续播放。</t>
   </si>
 </sst>
 </file>
@@ -2182,7 +2204,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2593,6 +2615,9 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -3125,19 +3150,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15:O15"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="0" style="26" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="0" style="26" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" style="26" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="0" style="26" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="14.375" style="26" hidden="1" customWidth="1"/>
@@ -3209,7 +3234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="132" customFormat="1" ht="40.5" hidden="1">
+    <row r="3" spans="1:19" s="132" customFormat="1" ht="40.5">
       <c r="A3" s="113">
         <v>1</v>
       </c>
@@ -3245,7 +3270,7 @@
       <c r="O3" s="115"/>
       <c r="P3" s="121"/>
     </row>
-    <row r="4" spans="1:19" s="132" customFormat="1" ht="135" hidden="1">
+    <row r="4" spans="1:19" s="132" customFormat="1" ht="135">
       <c r="A4" s="113">
         <v>2</v>
       </c>
@@ -3283,7 +3308,7 @@
       <c r="O4" s="115"/>
       <c r="P4" s="121"/>
     </row>
-    <row r="5" spans="1:19" s="132" customFormat="1" ht="27" hidden="1">
+    <row r="5" spans="1:19" s="132" customFormat="1" ht="27">
       <c r="A5" s="113">
         <v>3</v>
       </c>
@@ -3319,7 +3344,7 @@
       <c r="O5" s="115"/>
       <c r="P5" s="121"/>
     </row>
-    <row r="6" spans="1:19" s="132" customFormat="1" ht="27" hidden="1">
+    <row r="6" spans="1:19" s="132" customFormat="1" ht="27">
       <c r="A6" s="113">
         <v>4</v>
       </c>
@@ -3435,7 +3460,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="132" customFormat="1" ht="54" hidden="1">
+    <row r="9" spans="1:19" s="132" customFormat="1" ht="54">
       <c r="A9" s="113">
         <v>7</v>
       </c>
@@ -3471,7 +3496,7 @@
       <c r="O9" s="115"/>
       <c r="P9" s="121"/>
     </row>
-    <row r="10" spans="1:19" s="129" customFormat="1" ht="40.5" hidden="1">
+    <row r="10" spans="1:19" s="129" customFormat="1" ht="40.5">
       <c r="A10" s="113">
         <v>8</v>
       </c>
@@ -3507,7 +3532,7 @@
       <c r="O10" s="115"/>
       <c r="P10" s="121"/>
     </row>
-    <row r="11" spans="1:19" s="129" customFormat="1" hidden="1">
+    <row r="11" spans="1:19" s="129" customFormat="1">
       <c r="A11" s="113">
         <v>9</v>
       </c>
@@ -3543,7 +3568,7 @@
       <c r="O11" s="115"/>
       <c r="P11" s="121"/>
     </row>
-    <row r="12" spans="1:19" customFormat="1" ht="40.5" hidden="1">
+    <row r="12" spans="1:19" customFormat="1" ht="40.5">
       <c r="A12" s="113">
         <v>10</v>
       </c>
@@ -3584,7 +3609,7 @@
       </c>
       <c r="S12" s="136"/>
     </row>
-    <row r="13" spans="1:19" s="129" customFormat="1" ht="27" hidden="1">
+    <row r="13" spans="1:19" s="129" customFormat="1" ht="27">
       <c r="A13" s="113">
         <v>11</v>
       </c>
@@ -3620,7 +3645,7 @@
       <c r="O13" s="115"/>
       <c r="P13" s="121"/>
     </row>
-    <row r="14" spans="1:19" customFormat="1" ht="40.5" hidden="1">
+    <row r="14" spans="1:19" customFormat="1" ht="40.5">
       <c r="A14" s="113">
         <v>12</v>
       </c>
@@ -3723,10 +3748,16 @@
       <c r="I16" s="102"/>
       <c r="J16" s="57"/>
       <c r="K16" s="21"/>
-      <c r="L16" s="20"/>
+      <c r="L16" s="20" t="s">
+        <v>132</v>
+      </c>
       <c r="M16" s="58"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="59"/>
+      <c r="N16" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" s="59">
+        <v>42666</v>
+      </c>
       <c r="P16" s="60" t="s">
         <v>130</v>
       </c>
@@ -3755,6 +3786,15 @@
       </c>
       <c r="H17" s="95"/>
       <c r="I17" s="102"/>
+      <c r="L17" s="137" t="s">
+        <v>132</v>
+      </c>
+      <c r="N17" t="s">
+        <v>140</v>
+      </c>
+      <c r="O17" s="136">
+        <v>42666</v>
+      </c>
       <c r="P17" s="134" t="s">
         <v>130</v>
       </c>
@@ -3785,10 +3825,16 @@
       <c r="I18" s="102"/>
       <c r="J18" s="30"/>
       <c r="K18" s="28"/>
-      <c r="L18" s="11"/>
+      <c r="L18" s="102" t="s">
+        <v>135</v>
+      </c>
       <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="28"/>
+      <c r="N18" s="103" t="s">
+        <v>136</v>
+      </c>
+      <c r="O18" s="28">
+        <v>42666</v>
+      </c>
       <c r="P18" s="13" t="s">
         <v>130</v>
       </c>
@@ -3819,10 +3865,16 @@
       <c r="I19" s="102"/>
       <c r="J19" s="30"/>
       <c r="K19" s="28"/>
-      <c r="L19" s="11"/>
+      <c r="L19" s="102" t="s">
+        <v>135</v>
+      </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="28"/>
+      <c r="N19" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="O19" s="28">
+        <v>42666</v>
+      </c>
       <c r="P19" s="13" t="s">
         <v>130</v>
       </c>
@@ -3853,10 +3905,14 @@
       <c r="I20" s="102"/>
       <c r="J20" s="30"/>
       <c r="K20" s="28"/>
-      <c r="L20" s="11"/>
+      <c r="L20" s="102" t="s">
+        <v>132</v>
+      </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="28"/>
+      <c r="O20" s="105">
+        <v>42666</v>
+      </c>
       <c r="P20" s="13" t="s">
         <v>130</v>
       </c>
@@ -3921,10 +3977,16 @@
       <c r="I22" s="102"/>
       <c r="J22" s="30"/>
       <c r="K22" s="28"/>
-      <c r="L22" s="11"/>
+      <c r="L22" s="102" t="s">
+        <v>135</v>
+      </c>
       <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="28"/>
+      <c r="N22" s="103" t="s">
+        <v>138</v>
+      </c>
+      <c r="O22" s="28">
+        <v>42666</v>
+      </c>
       <c r="P22" s="13" t="s">
         <v>130</v>
       </c>
@@ -3991,10 +4053,14 @@
       <c r="I24" s="102"/>
       <c r="J24" s="30"/>
       <c r="K24" s="30"/>
-      <c r="L24" s="11"/>
+      <c r="L24" s="102" t="s">
+        <v>132</v>
+      </c>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="28"/>
+      <c r="O24" s="28">
+        <v>42666</v>
+      </c>
       <c r="P24" s="13" t="s">
         <v>130</v>
       </c>
@@ -4059,10 +4125,14 @@
       <c r="I26" s="102"/>
       <c r="J26" s="30"/>
       <c r="K26" s="28"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="28"/>
+      <c r="L26" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="104">
+        <v>42666</v>
+      </c>
       <c r="P26" s="13" t="s">
         <v>130</v>
       </c>
@@ -4095,15 +4165,19 @@
       <c r="I27" s="102"/>
       <c r="J27" s="30"/>
       <c r="K27" s="28"/>
-      <c r="L27" s="11"/>
+      <c r="L27" s="102" t="s">
+        <v>135</v>
+      </c>
       <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
+      <c r="N27" s="103" t="s">
+        <v>139</v>
+      </c>
       <c r="O27" s="28"/>
       <c r="P27" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="122" customFormat="1" ht="54" hidden="1">
+    <row r="28" spans="1:16" s="122" customFormat="1" ht="54">
       <c r="A28" s="113">
         <v>26</v>
       </c>
@@ -4139,7 +4213,7 @@
       <c r="O28" s="115"/>
       <c r="P28" s="121"/>
     </row>
-    <row r="29" spans="1:16" ht="67.5" hidden="1">
+    <row r="29" spans="1:16" ht="67.5">
       <c r="A29" s="113">
         <v>27</v>
       </c>
@@ -4173,7 +4247,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="122" customFormat="1" ht="81" hidden="1">
+    <row r="30" spans="1:16" s="122" customFormat="1" ht="81">
       <c r="A30" s="113">
         <v>28</v>
       </c>
@@ -4211,7 +4285,7 @@
       <c r="O30" s="115"/>
       <c r="P30" s="121"/>
     </row>
-    <row r="31" spans="1:16" s="122" customFormat="1" ht="81" hidden="1">
+    <row r="31" spans="1:16" s="122" customFormat="1" ht="81">
       <c r="A31" s="113">
         <v>29</v>
       </c>
@@ -4283,7 +4357,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="50" customFormat="1" ht="81" hidden="1">
+    <row r="33" spans="1:19" s="50" customFormat="1" ht="81">
       <c r="A33" s="113">
         <v>31</v>
       </c>
@@ -4317,7 +4391,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="50" customFormat="1" ht="81" hidden="1">
+    <row r="34" spans="1:19" s="50" customFormat="1" ht="81">
       <c r="A34" s="113">
         <v>32</v>
       </c>
@@ -4357,7 +4431,7 @@
       <c r="R34" s="107"/>
       <c r="S34" s="135"/>
     </row>
-    <row r="35" spans="1:19" s="50" customFormat="1" ht="54" hidden="1">
+    <row r="35" spans="1:19" s="50" customFormat="1" ht="54">
       <c r="A35" s="113">
         <v>33</v>
       </c>
@@ -4397,7 +4471,7 @@
       <c r="R35" s="107"/>
       <c r="S35" s="135"/>
     </row>
-    <row r="36" spans="1:19" s="50" customFormat="1" ht="94.5" hidden="1">
+    <row r="36" spans="1:19" s="50" customFormat="1" ht="94.5">
       <c r="A36" s="113">
         <v>34</v>
       </c>
@@ -4437,7 +4511,7 @@
       <c r="R36" s="107"/>
       <c r="S36" s="135"/>
     </row>
-    <row r="37" spans="1:19" s="50" customFormat="1" ht="81" hidden="1">
+    <row r="37" spans="1:19" s="50" customFormat="1" ht="81">
       <c r="A37" s="113">
         <v>35</v>
       </c>
@@ -4471,7 +4545,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="107" customFormat="1" ht="67.5" hidden="1">
+    <row r="38" spans="1:19" s="107" customFormat="1" ht="67.5">
       <c r="A38" s="113">
         <v>36</v>
       </c>
@@ -4535,10 +4609,14 @@
       <c r="I39" s="45"/>
       <c r="J39" s="48"/>
       <c r="K39" s="48"/>
-      <c r="L39" s="45"/>
+      <c r="L39" s="45" t="s">
+        <v>132</v>
+      </c>
       <c r="M39" s="47"/>
       <c r="N39" s="47"/>
-      <c r="O39" s="46"/>
+      <c r="O39" s="46">
+        <v>42666</v>
+      </c>
       <c r="P39" s="49" t="s">
         <v>130</v>
       </c>
@@ -4579,7 +4657,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="50" customFormat="1" hidden="1">
+    <row r="41" spans="1:19" s="50" customFormat="1">
       <c r="A41" s="113">
         <v>39</v>
       </c>
@@ -4785,10 +4863,14 @@
       <c r="I46" s="45"/>
       <c r="J46" s="48"/>
       <c r="K46" s="48"/>
-      <c r="L46" s="45"/>
+      <c r="L46" s="45" t="s">
+        <v>132</v>
+      </c>
       <c r="M46" s="47"/>
       <c r="N46" s="47"/>
-      <c r="O46" s="46"/>
+      <c r="O46" s="46">
+        <v>42666</v>
+      </c>
       <c r="P46" s="49" t="s">
         <v>130</v>
       </c>
@@ -4889,15 +4971,19 @@
       <c r="I49" s="45"/>
       <c r="J49" s="48"/>
       <c r="K49" s="48"/>
-      <c r="L49" s="45"/>
+      <c r="L49" s="45" t="s">
+        <v>132</v>
+      </c>
       <c r="M49" s="47"/>
       <c r="N49" s="47"/>
-      <c r="O49" s="46"/>
+      <c r="O49" s="46">
+        <v>42666</v>
+      </c>
       <c r="P49" s="49" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="107" customFormat="1" ht="27" hidden="1">
+    <row r="50" spans="1:16" s="107" customFormat="1" ht="27">
       <c r="A50" s="113">
         <v>48</v>
       </c>
@@ -4925,8 +5011,7 @@
       <c r="I50" s="45"/>
       <c r="J50" s="48"/>
       <c r="K50" s="48"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="47" t="s">
+      <c r="L50" s="47" t="s">
         <v>133</v>
       </c>
       <c r="N50" s="47"/>
@@ -5101,14 +5186,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:P50">
-    <filterColumn colId="8">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="15">
-      <filters>
-        <filter val="z"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="8"/>
+    <filterColumn colId="15"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
@@ -5117,7 +5196,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18:L54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18:L49 L51:L54">
       <formula1>"是否修改,是,否,其他"</formula1>
     </dataValidation>
   </dataValidations>
